--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\progs\Диплом Магистратура\Vibration_Analisys2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48296D31-C9C3-49D5-9DA5-7E131B0E9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B790FAE-6919-4289-8604-8FB93378EBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -361,8 +361,11 @@
       <c r="E1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.37</v>
       </c>
@@ -378,8 +381,11 @@
       <c r="E2">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.18</v>
       </c>
@@ -395,8 +401,11 @@
       <c r="E3">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.33</v>
       </c>
@@ -412,8 +421,11 @@
       <c r="E4">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.41</v>
       </c>
@@ -429,8 +441,11 @@
       <c r="E5">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.83</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="E6">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.37</v>
       </c>
@@ -463,8 +481,11 @@
       <c r="E7">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.52</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.52</v>
       </c>
@@ -497,8 +521,11 @@
       <c r="E9">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.37</v>
       </c>
@@ -514,8 +541,11 @@
       <c r="E10">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.98</v>
       </c>
@@ -531,8 +561,11 @@
       <c r="E11">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.4</v>
       </c>
@@ -548,8 +581,11 @@
       <c r="E12">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.76</v>
       </c>
@@ -565,8 +601,11 @@
       <c r="E13">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.42</v>
       </c>
@@ -582,8 +621,11 @@
       <c r="E14">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.52</v>
       </c>
@@ -599,8 +641,11 @@
       <c r="E15">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -616,8 +661,11 @@
       <c r="E16">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.46</v>
       </c>
@@ -633,8 +681,11 @@
       <c r="E17">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.54</v>
       </c>
@@ -650,8 +701,11 @@
       <c r="E18">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -667,8 +721,11 @@
       <c r="E19">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.18</v>
       </c>
@@ -684,8 +741,11 @@
       <c r="E20">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.37</v>
       </c>
@@ -701,8 +761,11 @@
       <c r="E21">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.07</v>
       </c>
@@ -718,8 +781,11 @@
       <c r="E22">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.57</v>
       </c>
@@ -735,8 +801,11 @@
       <c r="E23">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.89</v>
       </c>
@@ -752,8 +821,11 @@
       <c r="E24">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.51</v>
       </c>
@@ -769,8 +841,11 @@
       <c r="E25">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.55</v>
       </c>
@@ -786,8 +861,11 @@
       <c r="E26">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.52</v>
       </c>
@@ -803,8 +881,11 @@
       <c r="E27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.74</v>
       </c>
@@ -820,8 +901,11 @@
       <c r="E28">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.74</v>
       </c>
@@ -837,8 +921,11 @@
       <c r="E29">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.54</v>
       </c>
@@ -854,8 +941,11 @@
       <c r="E30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.33</v>
       </c>
@@ -871,8 +961,11 @@
       <c r="E31">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.93</v>
       </c>
@@ -888,8 +981,11 @@
       <c r="E32">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.21</v>
       </c>
@@ -905,8 +1001,11 @@
       <c r="E33">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.55</v>
       </c>
@@ -922,8 +1021,11 @@
       <c r="E34">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.27</v>
       </c>
@@ -939,8 +1041,11 @@
       <c r="E35">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.38</v>
       </c>
@@ -956,8 +1061,11 @@
       <c r="E36">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.55</v>
       </c>
@@ -973,8 +1081,11 @@
       <c r="E37">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.99</v>
       </c>
@@ -990,8 +1101,11 @@
       <c r="E38">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1007,8 +1121,11 @@
       <c r="E39">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.84</v>
       </c>
@@ -1024,8 +1141,11 @@
       <c r="E40">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.7</v>
       </c>
@@ -1041,8 +1161,11 @@
       <c r="E41">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.71</v>
       </c>
@@ -1058,8 +1181,11 @@
       <c r="E42">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.13</v>
       </c>
@@ -1075,8 +1201,11 @@
       <c r="E43">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.25</v>
       </c>
@@ -1092,8 +1221,11 @@
       <c r="E44">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4.0199999999999996</v>
       </c>
@@ -1109,8 +1241,11 @@
       <c r="E45">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.59</v>
       </c>
@@ -1126,8 +1261,11 @@
       <c r="E46">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.11</v>
       </c>
@@ -1143,8 +1281,11 @@
       <c r="E47">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3.29</v>
       </c>
@@ -1160,8 +1301,11 @@
       <c r="E48">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.4700000000000002</v>
       </c>
@@ -1177,8 +1321,11 @@
       <c r="E49">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.42</v>
       </c>
@@ -1194,8 +1341,11 @@
       <c r="E50">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.95</v>
       </c>
@@ -1211,8 +1361,11 @@
       <c r="E51">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.49</v>
       </c>
@@ -1228,8 +1381,11 @@
       <c r="E52">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.71</v>
       </c>
@@ -1245,8 +1401,11 @@
       <c r="E53">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.66</v>
       </c>
@@ -1262,8 +1421,11 @@
       <c r="E54">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.7</v>
       </c>
@@ -1279,8 +1441,11 @@
       <c r="E55">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3.65</v>
       </c>
@@ -1296,8 +1461,11 @@
       <c r="E56">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.73</v>
       </c>
@@ -1313,8 +1481,11 @@
       <c r="E57">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.3099999999999996</v>
       </c>
@@ -1330,8 +1501,11 @@
       <c r="E58">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.21</v>
       </c>
@@ -1347,8 +1521,11 @@
       <c r="E59">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.16</v>
       </c>
@@ -1364,8 +1541,11 @@
       <c r="E60">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.88</v>
       </c>
@@ -1381,8 +1561,11 @@
       <c r="E61">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.04</v>
       </c>
@@ -1398,8 +1581,11 @@
       <c r="E62">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3.36</v>
       </c>
@@ -1415,8 +1601,11 @@
       <c r="E63">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.29</v>
       </c>
@@ -1432,8 +1621,11 @@
       <c r="E64">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.9</v>
       </c>
@@ -1449,8 +1641,11 @@
       <c r="E65">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.83</v>
       </c>
@@ -1466,8 +1661,11 @@
       <c r="E66">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.8099999999999996</v>
       </c>
@@ -1483,8 +1681,11 @@
       <c r="E67">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3.21</v>
       </c>
@@ -1500,8 +1701,11 @@
       <c r="E68">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.1</v>
       </c>
@@ -1517,8 +1721,11 @@
       <c r="E69">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.03</v>
       </c>
@@ -1534,8 +1741,11 @@
       <c r="E70">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.18</v>
       </c>
@@ -1551,8 +1761,11 @@
       <c r="E71">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4.08</v>
       </c>
@@ -1568,8 +1781,11 @@
       <c r="E72">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.06</v>
       </c>
@@ -1585,8 +1801,11 @@
       <c r="E73">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.09</v>
       </c>
@@ -1602,8 +1821,11 @@
       <c r="E74">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.23</v>
       </c>
@@ -1619,8 +1841,11 @@
       <c r="E75">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.14000000000000001</v>
       </c>
@@ -1636,8 +1861,11 @@
       <c r="E76">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.14</v>
       </c>
@@ -1653,8 +1881,11 @@
       <c r="E77">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.04</v>
       </c>
@@ -1670,8 +1901,11 @@
       <c r="E78">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.5499999999999998</v>
       </c>
@@ -1687,8 +1921,11 @@
       <c r="E79">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.4300000000000002</v>
       </c>
@@ -1704,8 +1941,11 @@
       <c r="E80">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.63</v>
       </c>
@@ -1721,8 +1961,11 @@
       <c r="E81">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2.14</v>
       </c>
@@ -1738,8 +1981,11 @@
       <c r="E82">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.76</v>
       </c>
@@ -1755,8 +2001,11 @@
       <c r="E83">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1772,8 +2021,11 @@
       <c r="E84">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.4700000000000002</v>
       </c>
@@ -1789,8 +2041,11 @@
       <c r="E85">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.2</v>
       </c>
@@ -1806,8 +2061,11 @@
       <c r="E86">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.73</v>
       </c>
@@ -1823,8 +2081,11 @@
       <c r="E87">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4.79</v>
       </c>
@@ -1840,8 +2101,11 @@
       <c r="E88">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3.86</v>
       </c>
@@ -1857,8 +2121,11 @@
       <c r="E89">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.54</v>
       </c>
@@ -1874,8 +2141,11 @@
       <c r="E90">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.96</v>
       </c>
@@ -1891,8 +2161,11 @@
       <c r="E91">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.27</v>
       </c>
@@ -1908,8 +2181,11 @@
       <c r="E92">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4.5199999999999996</v>
       </c>
@@ -1925,8 +2201,11 @@
       <c r="E93">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3.34</v>
       </c>
@@ -1942,8 +2221,11 @@
       <c r="E94">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1.38</v>
       </c>
@@ -1959,8 +2241,11 @@
       <c r="E95">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.36</v>
       </c>
@@ -1976,8 +2261,11 @@
       <c r="E96">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3.56</v>
       </c>
@@ -1993,8 +2281,11 @@
       <c r="E97">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1.03</v>
       </c>
@@ -2010,8 +2301,11 @@
       <c r="E98">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3.71</v>
       </c>
@@ -2027,8 +2321,11 @@
       <c r="E99">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2044,8 +2341,11 @@
       <c r="E100">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3.33</v>
       </c>
@@ -2061,8 +2361,11 @@
       <c r="E101">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3.07</v>
       </c>
@@ -2078,8 +2381,11 @@
       <c r="E102">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3.88</v>
       </c>
@@ -2095,8 +2401,11 @@
       <c r="E103">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1.63</v>
       </c>
@@ -2112,8 +2421,11 @@
       <c r="E104">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.73</v>
       </c>
@@ -2129,8 +2441,11 @@
       <c r="E105">
         <v>3.87</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4.91</v>
       </c>
@@ -2146,8 +2461,11 @@
       <c r="E106">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2.6</v>
       </c>
@@ -2163,8 +2481,11 @@
       <c r="E107">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2.59</v>
       </c>
@@ -2180,8 +2501,11 @@
       <c r="E108">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4.1399999999999997</v>
       </c>
@@ -2197,8 +2521,11 @@
       <c r="E109">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2.97</v>
       </c>
@@ -2214,8 +2541,11 @@
       <c r="E110">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1.28</v>
       </c>
@@ -2231,8 +2561,11 @@
       <c r="E111">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1.59</v>
       </c>
@@ -2248,8 +2581,11 @@
       <c r="E112">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3.58</v>
       </c>
@@ -2265,8 +2601,11 @@
       <c r="E113">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.31</v>
       </c>
@@ -2282,8 +2621,11 @@
       <c r="E114">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3.63</v>
       </c>
@@ -2299,8 +2641,11 @@
       <c r="E115">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.94</v>
       </c>
@@ -2316,8 +2661,11 @@
       <c r="E116">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.65</v>
       </c>
@@ -2333,8 +2681,11 @@
       <c r="E117">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2.71</v>
       </c>
@@ -2350,8 +2701,11 @@
       <c r="E118">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3.27</v>
       </c>
@@ -2367,8 +2721,11 @@
       <c r="E119">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2.29</v>
       </c>
@@ -2384,8 +2741,11 @@
       <c r="E120">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1.02</v>
       </c>
@@ -2401,8 +2761,11 @@
       <c r="E121">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.21</v>
       </c>
@@ -2418,8 +2781,11 @@
       <c r="E122">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3.65</v>
       </c>
@@ -2435,8 +2801,11 @@
       <c r="E123">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3.42</v>
       </c>
@@ -2452,8 +2821,11 @@
       <c r="E124">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3.42</v>
       </c>
@@ -2469,8 +2841,11 @@
       <c r="E125">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2.94</v>
       </c>
@@ -2486,8 +2861,11 @@
       <c r="E126">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4.4400000000000004</v>
       </c>
@@ -2503,8 +2881,11 @@
       <c r="E127">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4.1399999999999997</v>
       </c>
@@ -2520,8 +2901,11 @@
       <c r="E128">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.85</v>
       </c>
@@ -2537,8 +2921,11 @@
       <c r="E129">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.52</v>
       </c>
@@ -2554,8 +2941,11 @@
       <c r="E130">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4.0999999999999996</v>
       </c>
@@ -2571,8 +2961,11 @@
       <c r="E131">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4.03</v>
       </c>
@@ -2588,8 +2981,11 @@
       <c r="E132">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.9</v>
       </c>
@@ -2605,8 +3001,11 @@
       <c r="E133">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4.97</v>
       </c>
@@ -2622,8 +3021,11 @@
       <c r="E134">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4.29</v>
       </c>
@@ -2639,8 +3041,11 @@
       <c r="E135">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4.4400000000000004</v>
       </c>
@@ -2656,8 +3061,11 @@
       <c r="E136">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2.92</v>
       </c>
@@ -2673,8 +3081,11 @@
       <c r="E137">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.7</v>
       </c>
@@ -2690,8 +3101,11 @@
       <c r="E138">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1.97</v>
       </c>
@@ -2707,8 +3121,11 @@
       <c r="E139">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1.26</v>
       </c>
@@ -2724,8 +3141,11 @@
       <c r="E140">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1.24</v>
       </c>
@@ -2741,8 +3161,11 @@
       <c r="E141">
         <v>2.5299999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2.94</v>
       </c>
@@ -2758,8 +3181,11 @@
       <c r="E142">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.89</v>
       </c>
@@ -2775,8 +3201,11 @@
       <c r="E143">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1.47</v>
       </c>
@@ -2792,8 +3221,11 @@
       <c r="E144">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.57999999999999996</v>
       </c>
@@ -2809,8 +3241,11 @@
       <c r="E145">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3.81</v>
       </c>
@@ -2826,8 +3261,11 @@
       <c r="E146">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4.74</v>
       </c>
@@ -2843,8 +3281,11 @@
       <c r="E147">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3.74</v>
       </c>
@@ -2860,8 +3301,11 @@
       <c r="E148">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4.82</v>
       </c>
@@ -2877,8 +3321,11 @@
       <c r="E149">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.47</v>
       </c>
@@ -2894,8 +3341,11 @@
       <c r="E150">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1.57</v>
       </c>
@@ -2911,8 +3361,11 @@
       <c r="E151">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1.02</v>
       </c>
@@ -2928,8 +3381,11 @@
       <c r="E152">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1.1299999999999999</v>
       </c>
@@ -2945,8 +3401,11 @@
       <c r="E153">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1.17</v>
       </c>
@@ -2962,8 +3421,11 @@
       <c r="E154">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4.76</v>
       </c>
@@ -2979,8 +3441,11 @@
       <c r="E155">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0.66</v>
       </c>
@@ -2996,8 +3461,11 @@
       <c r="E156">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0.98</v>
       </c>
@@ -3013,8 +3481,11 @@
       <c r="E157">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1.71</v>
       </c>
@@ -3030,8 +3501,11 @@
       <c r="E158">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4.17</v>
       </c>
@@ -3047,8 +3521,11 @@
       <c r="E159">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4.6500000000000004</v>
       </c>
@@ -3064,8 +3541,11 @@
       <c r="E160">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1.84</v>
       </c>
@@ -3081,8 +3561,11 @@
       <c r="E161">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3.41</v>
       </c>
@@ -3098,8 +3581,11 @@
       <c r="E162">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2.76</v>
       </c>
@@ -3115,8 +3601,11 @@
       <c r="E163">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2.34</v>
       </c>
@@ -3132,8 +3621,11 @@
       <c r="E164">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2.77</v>
       </c>
@@ -3149,8 +3641,11 @@
       <c r="E165">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0.13</v>
       </c>
@@ -3166,8 +3661,11 @@
       <c r="E166">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4.47</v>
       </c>
@@ -3183,8 +3681,11 @@
       <c r="E167">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2.2400000000000002</v>
       </c>
@@ -3200,8 +3701,11 @@
       <c r="E168">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3.71</v>
       </c>
@@ -3217,8 +3721,11 @@
       <c r="E169">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4.5999999999999996</v>
       </c>
@@ -3234,8 +3741,11 @@
       <c r="E170">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0.21</v>
       </c>
@@ -3251,8 +3761,11 @@
       <c r="E171">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1.51</v>
       </c>
@@ -3268,8 +3781,11 @@
       <c r="E172">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0.44</v>
       </c>
@@ -3285,8 +3801,11 @@
       <c r="E173">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1.77</v>
       </c>
@@ -3302,8 +3821,11 @@
       <c r="E174">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.59</v>
       </c>
@@ -3319,8 +3841,11 @@
       <c r="E175">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.26</v>
       </c>
@@ -3336,8 +3861,11 @@
       <c r="E176">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0.25</v>
       </c>
@@ -3353,8 +3881,11 @@
       <c r="E177">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2.94</v>
       </c>
@@ -3370,8 +3901,11 @@
       <c r="E178">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2.17</v>
       </c>
@@ -3387,8 +3921,11 @@
       <c r="E179">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3.04</v>
       </c>
@@ -3404,8 +3941,11 @@
       <c r="E180">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4.8499999999999996</v>
       </c>
@@ -3421,8 +3961,11 @@
       <c r="E181">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0.02</v>
       </c>
@@ -3438,8 +3981,11 @@
       <c r="E182">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0.39</v>
       </c>
@@ -3455,8 +4001,11 @@
       <c r="E183">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1.48</v>
       </c>
@@ -3472,8 +4021,11 @@
       <c r="E184">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1.77</v>
       </c>
@@ -3489,8 +4041,11 @@
       <c r="E185">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4.72</v>
       </c>
@@ -3506,8 +4061,11 @@
       <c r="E186">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1.47</v>
       </c>
@@ -3523,8 +4081,11 @@
       <c r="E187">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4.4000000000000004</v>
       </c>
@@ -3540,8 +4101,11 @@
       <c r="E188">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1.68</v>
       </c>
@@ -3557,8 +4121,11 @@
       <c r="E189">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0.99</v>
       </c>
@@ -3574,8 +4141,11 @@
       <c r="E190">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1.2</v>
       </c>
@@ -3591,8 +4161,11 @@
       <c r="E191">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3.05</v>
       </c>
@@ -3608,8 +4181,11 @@
       <c r="E192">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1.91</v>
       </c>
@@ -3625,8 +4201,11 @@
       <c r="E193">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0.85</v>
       </c>
@@ -3642,8 +4221,11 @@
       <c r="E194">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4.95</v>
       </c>
@@ -3659,8 +4241,11 @@
       <c r="E195">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2.0299999999999998</v>
       </c>
@@ -3676,8 +4261,11 @@
       <c r="E196">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4.6100000000000003</v>
       </c>
@@ -3693,8 +4281,11 @@
       <c r="E197">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3.37</v>
       </c>
@@ -3710,8 +4301,11 @@
       <c r="E198">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0.48</v>
       </c>
@@ -3727,8 +4321,11 @@
       <c r="E199">
         <v>4.1100000000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4.16</v>
       </c>
@@ -3744,8 +4341,11 @@
       <c r="E200">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2.33</v>
       </c>
@@ -3761,8 +4361,11 @@
       <c r="E201">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4.6399999999999997</v>
       </c>
@@ -3778,8 +4381,11 @@
       <c r="E202">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1.41</v>
       </c>
@@ -3795,8 +4401,11 @@
       <c r="E203">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.54</v>
       </c>
@@ -3812,8 +4421,11 @@
       <c r="E204">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4.8499999999999996</v>
       </c>
@@ -3829,8 +4441,11 @@
       <c r="E205">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2.17</v>
       </c>
@@ -3846,8 +4461,11 @@
       <c r="E206">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2.17</v>
       </c>
@@ -3863,8 +4481,11 @@
       <c r="E207">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4.3600000000000003</v>
       </c>
@@ -3880,8 +4501,11 @@
       <c r="E208">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4.32</v>
       </c>
@@ -3897,8 +4521,11 @@
       <c r="E209">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0.43</v>
       </c>
@@ -3914,8 +4541,11 @@
       <c r="E210">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1.87</v>
       </c>
@@ -3931,8 +4561,11 @@
       <c r="E211">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3.98</v>
       </c>
@@ -3948,8 +4581,11 @@
       <c r="E212">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1.55</v>
       </c>
@@ -3965,8 +4601,11 @@
       <c r="E213">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2.62</v>
       </c>
@@ -3982,8 +4621,11 @@
       <c r="E214">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2.04</v>
       </c>
@@ -3999,8 +4641,11 @@
       <c r="E215">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0.88</v>
       </c>
@@ -4016,8 +4661,11 @@
       <c r="E216">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0.87</v>
       </c>
@@ -4033,8 +4681,11 @@
       <c r="E217">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0.87</v>
       </c>
@@ -4050,8 +4701,11 @@
       <c r="E218">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0.75</v>
       </c>
@@ -4067,8 +4721,11 @@
       <c r="E219">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1.92</v>
       </c>
@@ -4084,8 +4741,11 @@
       <c r="E220">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>3.33</v>
       </c>
@@ -4101,8 +4761,11 @@
       <c r="E221">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2.92</v>
       </c>
@@ -4118,8 +4781,11 @@
       <c r="E222">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1.03</v>
       </c>
@@ -4135,8 +4801,11 @@
       <c r="E223">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0.78</v>
       </c>
@@ -4152,8 +4821,11 @@
       <c r="E224">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3.95</v>
       </c>
@@ -4169,8 +4841,11 @@
       <c r="E225">
         <v>3.87</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1.72</v>
       </c>
@@ -4186,8 +4861,11 @@
       <c r="E226">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0.03</v>
       </c>
@@ -4203,8 +4881,11 @@
       <c r="E227">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0.03</v>
       </c>
@@ -4220,8 +4901,11 @@
       <c r="E228">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0.43</v>
       </c>
@@ -4237,8 +4921,11 @@
       <c r="E229">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4.49</v>
       </c>
@@ -4254,8 +4941,11 @@
       <c r="E230">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4.22</v>
       </c>
@@ -4271,8 +4961,11 @@
       <c r="E231">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3.91</v>
       </c>
@@ -4288,8 +4981,11 @@
       <c r="E232">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3.06</v>
       </c>
@@ -4305,8 +5001,11 @@
       <c r="E233">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2.59</v>
       </c>
@@ -4322,8 +5021,11 @@
       <c r="E234">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3.21</v>
       </c>
@@ -4339,8 +5041,11 @@
       <c r="E235">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2.09</v>
       </c>
@@ -4356,8 +5061,11 @@
       <c r="E236">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>3.6</v>
       </c>
@@ -4373,8 +5081,11 @@
       <c r="E237">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0.56000000000000005</v>
       </c>
@@ -4390,8 +5101,11 @@
       <c r="E238">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4.68</v>
       </c>
@@ -4407,8 +5121,11 @@
       <c r="E239">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0.28999999999999998</v>
       </c>
@@ -4424,8 +5141,11 @@
       <c r="E240">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4.7300000000000004</v>
       </c>
@@ -4441,8 +5161,11 @@
       <c r="E241">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3.82</v>
       </c>
@@ -4458,8 +5181,11 @@
       <c r="E242">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3.26</v>
       </c>
@@ -4475,8 +5201,11 @@
       <c r="E243">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4.47</v>
       </c>
@@ -4492,8 +5221,11 @@
       <c r="E244">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2.4</v>
       </c>
@@ -4509,8 +5241,11 @@
       <c r="E245">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2.63</v>
       </c>
@@ -4526,8 +5261,11 @@
       <c r="E246">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0.46</v>
       </c>
@@ -4543,8 +5281,11 @@
       <c r="E247">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0.21</v>
       </c>
@@ -4560,8 +5301,11 @@
       <c r="E248">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0.01</v>
       </c>
@@ -4577,8 +5321,11 @@
       <c r="E249">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2.4300000000000002</v>
       </c>
@@ -4594,8 +5341,11 @@
       <c r="E250">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1.27</v>
       </c>
@@ -4611,8 +5361,11 @@
       <c r="E251">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3.24</v>
       </c>
@@ -4628,8 +5381,11 @@
       <c r="E252">
         <v>4.8099999999999996</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0.32</v>
       </c>
@@ -4645,8 +5401,11 @@
       <c r="E253">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3.19</v>
       </c>
@@ -4662,8 +5421,11 @@
       <c r="E254">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4.13</v>
       </c>
@@ -4679,8 +5441,11 @@
       <c r="E255">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0.38</v>
       </c>
@@ -4696,8 +5461,11 @@
       <c r="E256">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4.87</v>
       </c>
@@ -4713,8 +5481,11 @@
       <c r="E257">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4.76</v>
       </c>
@@ -4730,8 +5501,11 @@
       <c r="E258">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2.3199999999999998</v>
       </c>
@@ -4747,8 +5521,11 @@
       <c r="E259">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2.48</v>
       </c>
@@ -4764,8 +5541,11 @@
       <c r="E260">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3.62</v>
       </c>
@@ -4781,8 +5561,11 @@
       <c r="E261">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4.4000000000000004</v>
       </c>
@@ -4798,8 +5581,11 @@
       <c r="E262">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -4815,8 +5601,11 @@
       <c r="E263">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4.33</v>
       </c>
@@ -4832,8 +5621,11 @@
       <c r="E264">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4.17</v>
       </c>
@@ -4849,8 +5641,11 @@
       <c r="E265">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3.09</v>
       </c>
@@ -4866,8 +5661,11 @@
       <c r="E266">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4.46</v>
       </c>
@@ -4883,8 +5681,11 @@
       <c r="E267">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3.9</v>
       </c>
@@ -4900,8 +5701,11 @@
       <c r="E268">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3.38</v>
       </c>
@@ -4917,8 +5721,11 @@
       <c r="E269">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2.92</v>
       </c>
@@ -4934,8 +5741,11 @@
       <c r="E270">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4.72</v>
       </c>
@@ -4951,8 +5761,11 @@
       <c r="E271">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4.47</v>
       </c>
@@ -4968,8 +5781,11 @@
       <c r="E272">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2.4900000000000002</v>
       </c>
@@ -4985,8 +5801,11 @@
       <c r="E273">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0.73</v>
       </c>
@@ -5002,8 +5821,11 @@
       <c r="E274">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3.98</v>
       </c>
@@ -5019,8 +5841,11 @@
       <c r="E275">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2.57</v>
       </c>
@@ -5036,8 +5861,11 @@
       <c r="E276">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0.22</v>
       </c>
@@ -5053,8 +5881,11 @@
       <c r="E277">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2.34</v>
       </c>
@@ -5070,8 +5901,11 @@
       <c r="E278">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2.69</v>
       </c>
@@ -5087,8 +5921,11 @@
       <c r="E279">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1.82</v>
       </c>
@@ -5104,8 +5941,11 @@
       <c r="E280">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0.8</v>
       </c>
@@ -5121,8 +5961,11 @@
       <c r="E281">
         <v>2.5299999999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0.54</v>
       </c>
@@ -5138,8 +5981,11 @@
       <c r="E282">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0.32</v>
       </c>
@@ -5155,8 +6001,11 @@
       <c r="E283">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2.11</v>
       </c>
@@ -5172,8 +6021,11 @@
       <c r="E284">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2.97</v>
       </c>
@@ -5189,8 +6041,11 @@
       <c r="E285">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.1000000000000001</v>
       </c>
@@ -5206,8 +6061,11 @@
       <c r="E286">
         <v>2.96</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.1299999999999999</v>
       </c>
@@ -5223,8 +6081,11 @@
       <c r="E287">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0.32</v>
       </c>
@@ -5240,8 +6101,11 @@
       <c r="E288">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2.74</v>
       </c>
@@ -5257,8 +6121,11 @@
       <c r="E289">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2.5499999999999998</v>
       </c>
@@ -5274,8 +6141,11 @@
       <c r="E290">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4.0599999999999996</v>
       </c>
@@ -5291,8 +6161,11 @@
       <c r="E291">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4.0999999999999996</v>
       </c>
@@ -5308,8 +6181,11 @@
       <c r="E292">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0.47</v>
       </c>
@@ -5325,8 +6201,11 @@
       <c r="E293">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4.8499999999999996</v>
       </c>
@@ -5342,8 +6221,11 @@
       <c r="E294">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1.1599999999999999</v>
       </c>
@@ -5359,8 +6241,11 @@
       <c r="E295">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2.86</v>
       </c>
@@ -5376,8 +6261,11 @@
       <c r="E296">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0.03</v>
       </c>
@@ -5393,8 +6281,11 @@
       <c r="E297">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0.37</v>
       </c>
@@ -5410,8 +6301,11 @@
       <c r="E298">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0.04</v>
       </c>
@@ -5427,8 +6321,11 @@
       <c r="E299">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1.99</v>
       </c>
@@ -5444,8 +6341,11 @@
       <c r="E300">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.05</v>
       </c>
@@ -5461,8 +6361,11 @@
       <c r="E301">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3.19</v>
       </c>
@@ -5478,8 +6381,11 @@
       <c r="E302">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2.0699999999999998</v>
       </c>
@@ -5495,8 +6401,11 @@
       <c r="E303">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0.82</v>
       </c>
@@ -5512,8 +6421,11 @@
       <c r="E304">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3.11</v>
       </c>
@@ -5529,8 +6441,11 @@
       <c r="E305">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0.8</v>
       </c>
@@ -5546,8 +6461,11 @@
       <c r="E306">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3.87</v>
       </c>
@@ -5563,8 +6481,11 @@
       <c r="E307">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4.1399999999999997</v>
       </c>
@@ -5580,8 +6501,11 @@
       <c r="E308">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3.46</v>
       </c>
@@ -5597,8 +6521,11 @@
       <c r="E309">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>4.22</v>
       </c>
@@ -5614,8 +6541,11 @@
       <c r="E310">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0.28999999999999998</v>
       </c>
@@ -5631,8 +6561,11 @@
       <c r="E311">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2.14</v>
       </c>
@@ -5648,8 +6581,11 @@
       <c r="E312">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2.94</v>
       </c>
@@ -5665,8 +6601,11 @@
       <c r="E313">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1.89</v>
       </c>
@@ -5682,8 +6621,11 @@
       <c r="E314">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0.49</v>
       </c>
@@ -5699,8 +6641,11 @@
       <c r="E315">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4.1399999999999997</v>
       </c>
@@ -5716,8 +6661,11 @@
       <c r="E316">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2.46</v>
       </c>
@@ -5733,8 +6681,11 @@
       <c r="E317">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1.9</v>
       </c>
@@ -5750,8 +6701,11 @@
       <c r="E318">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2.4700000000000002</v>
       </c>
@@ -5767,8 +6721,11 @@
       <c r="E319">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3.96</v>
       </c>
@@ -5784,8 +6741,11 @@
       <c r="E320">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.31</v>
       </c>
@@ -5801,8 +6761,11 @@
       <c r="E321">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.0900000000000001</v>
       </c>
@@ -5818,8 +6781,11 @@
       <c r="E322">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1.1200000000000001</v>
       </c>
@@ -5835,8 +6801,11 @@
       <c r="E323">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2.27</v>
       </c>
@@ -5852,8 +6821,11 @@
       <c r="E324">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1.81</v>
       </c>
@@ -5869,8 +6841,11 @@
       <c r="E325">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3.4</v>
       </c>
@@ -5886,8 +6861,11 @@
       <c r="E326">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3.56</v>
       </c>
@@ -5903,8 +6881,11 @@
       <c r="E327">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>0.39</v>
       </c>
@@ -5920,8 +6901,11 @@
       <c r="E328">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1.85</v>
       </c>
@@ -5937,8 +6921,11 @@
       <c r="E329">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1.98</v>
       </c>
@@ -5954,8 +6941,11 @@
       <c r="E330">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0.36</v>
       </c>
@@ -5971,8 +6961,11 @@
       <c r="E331">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>4.34</v>
       </c>
@@ -5988,8 +6981,11 @@
       <c r="E332">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2.21</v>
       </c>
@@ -6005,8 +7001,11 @@
       <c r="E333">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3.12</v>
       </c>
@@ -6022,8 +7021,11 @@
       <c r="E334">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0.54</v>
       </c>
@@ -6039,8 +7041,11 @@
       <c r="E335">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0.01</v>
       </c>
@@ -6056,8 +7061,11 @@
       <c r="E336">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2.31</v>
       </c>
@@ -6073,8 +7081,11 @@
       <c r="E337">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1.74</v>
       </c>
@@ -6090,8 +7101,11 @@
       <c r="E338">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.06</v>
       </c>
@@ -6107,8 +7121,11 @@
       <c r="E339">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0.49</v>
       </c>
@@ -6124,8 +7141,11 @@
       <c r="E340">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0.64</v>
       </c>
@@ -6141,8 +7161,11 @@
       <c r="E341">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>4.29</v>
       </c>
@@ -6158,8 +7181,11 @@
       <c r="E342">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>0.04</v>
       </c>
@@ -6175,8 +7201,11 @@
       <c r="E343">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1.47</v>
       </c>
@@ -6192,8 +7221,11 @@
       <c r="E344">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1.31</v>
       </c>
@@ -6209,8 +7241,11 @@
       <c r="E345">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3.68</v>
       </c>
@@ -6226,8 +7261,11 @@
       <c r="E346">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3.3</v>
       </c>
@@ -6243,8 +7281,11 @@
       <c r="E347">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>4.0599999999999996</v>
       </c>
@@ -6260,8 +7301,11 @@
       <c r="E348">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1.4</v>
       </c>
@@ -6277,8 +7321,11 @@
       <c r="E349">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.29</v>
       </c>
@@ -6294,8 +7341,11 @@
       <c r="E350">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2.7</v>
       </c>
@@ -6311,8 +7361,11 @@
       <c r="E351">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4.74</v>
       </c>
@@ -6328,8 +7381,11 @@
       <c r="E352">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2.69</v>
       </c>
@@ -6345,8 +7401,11 @@
       <c r="E353">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.13</v>
       </c>
@@ -6362,8 +7421,11 @@
       <c r="E354">
         <v>4.8099999999999996</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>0.12</v>
       </c>
@@ -6379,8 +7441,11 @@
       <c r="E355">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1.5</v>
       </c>
@@ -6396,8 +7461,11 @@
       <c r="E356">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2.85</v>
       </c>
@@ -6413,8 +7481,11 @@
       <c r="E357">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>4.8600000000000003</v>
       </c>
@@ -6430,8 +7501,11 @@
       <c r="E358">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2.29</v>
       </c>
@@ -6447,8 +7521,11 @@
       <c r="E359">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>0.19</v>
       </c>
@@ -6464,8 +7541,11 @@
       <c r="E360">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>4.1500000000000004</v>
       </c>
@@ -6481,8 +7561,11 @@
       <c r="E361">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1.06</v>
       </c>
@@ -6498,8 +7581,11 @@
       <c r="E362">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2.58</v>
       </c>
@@ -6515,8 +7601,11 @@
       <c r="E363">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.18</v>
       </c>
@@ -6532,8 +7621,11 @@
       <c r="E364">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1.42</v>
       </c>
@@ -6549,8 +7641,11 @@
       <c r="E365">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0.59</v>
       </c>
@@ -6566,8 +7661,11 @@
       <c r="E366">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>0.75</v>
       </c>
@@ -6583,8 +7681,11 @@
       <c r="E367">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2.34</v>
       </c>
@@ -6600,8 +7701,11 @@
       <c r="E368">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4.82</v>
       </c>
@@ -6617,8 +7721,11 @@
       <c r="E369">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4.05</v>
       </c>
@@ -6634,8 +7741,11 @@
       <c r="E370">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>3.72</v>
       </c>
@@ -6651,8 +7761,11 @@
       <c r="E371">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3.38</v>
       </c>
@@ -6668,8 +7781,11 @@
       <c r="E372">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2.59</v>
       </c>
@@ -6685,8 +7801,11 @@
       <c r="E373">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3.77</v>
       </c>
@@ -6702,8 +7821,11 @@
       <c r="E374">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.77</v>
       </c>
@@ -6719,8 +7841,11 @@
       <c r="E375">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>4.8</v>
       </c>
@@ -6736,8 +7861,11 @@
       <c r="E376">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>0.5</v>
       </c>
@@ -6753,8 +7881,11 @@
       <c r="E377">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2.58</v>
       </c>
@@ -6770,8 +7901,11 @@
       <c r="E378">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>0.4</v>
       </c>
@@ -6787,8 +7921,11 @@
       <c r="E379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1.96</v>
       </c>
@@ -6804,8 +7941,11 @@
       <c r="E380">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2.2599999999999998</v>
       </c>
@@ -6821,8 +7961,11 @@
       <c r="E381">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>0.84</v>
       </c>
@@ -6838,8 +7981,11 @@
       <c r="E382">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>0.51</v>
       </c>
@@ -6855,8 +8001,11 @@
       <c r="E383">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1.06</v>
       </c>
@@ -6872,8 +8021,11 @@
       <c r="E384">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>0.33</v>
       </c>
@@ -6889,8 +8041,11 @@
       <c r="E385">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3.73</v>
       </c>
@@ -6906,8 +8061,11 @@
       <c r="E386">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3.96</v>
       </c>
@@ -6923,8 +8081,11 @@
       <c r="E387">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2.25</v>
       </c>
@@ -6940,8 +8101,11 @@
       <c r="E388">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.18</v>
       </c>
@@ -6957,8 +8121,11 @@
       <c r="E389">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>3.56</v>
       </c>
@@ -6974,8 +8141,11 @@
       <c r="E390">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>4.45</v>
       </c>
@@ -6991,8 +8161,11 @@
       <c r="E391">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4.12</v>
       </c>
@@ -7008,8 +8181,11 @@
       <c r="E392">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2.87</v>
       </c>
@@ -7025,8 +8201,11 @@
       <c r="E393">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1.45</v>
       </c>
@@ -7042,8 +8221,11 @@
       <c r="E394">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>4.47</v>
       </c>
@@ -7059,8 +8241,11 @@
       <c r="E395">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1.47</v>
       </c>
@@ -7076,8 +8261,11 @@
       <c r="E396">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>0.72</v>
       </c>
@@ -7093,8 +8281,11 @@
       <c r="E397">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0.44</v>
       </c>
@@ -7110,8 +8301,11 @@
       <c r="E398">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2.85</v>
       </c>
@@ -7127,8 +8321,11 @@
       <c r="E399">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2.38</v>
       </c>
@@ -7144,8 +8341,11 @@
       <c r="E400">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3.13</v>
       </c>
@@ -7161,8 +8361,11 @@
       <c r="E401">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4.79</v>
       </c>
@@ -7178,8 +8381,11 @@
       <c r="E402">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>0.75</v>
       </c>
@@ -7195,8 +8401,11 @@
       <c r="E403">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2.02</v>
       </c>
@@ -7212,8 +8421,11 @@
       <c r="E404">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0.34</v>
       </c>
@@ -7229,8 +8441,11 @@
       <c r="E405">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>3.63</v>
       </c>
@@ -7246,8 +8461,11 @@
       <c r="E406">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1.44</v>
       </c>
@@ -7263,8 +8481,11 @@
       <c r="E407">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4.42</v>
       </c>
@@ -7280,8 +8501,11 @@
       <c r="E408">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1.62</v>
       </c>
@@ -7297,8 +8521,11 @@
       <c r="E409">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3.24</v>
       </c>
@@ -7314,8 +8541,11 @@
       <c r="E410">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3.73</v>
       </c>
@@ -7331,8 +8561,11 @@
       <c r="E411">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1.1399999999999999</v>
       </c>
@@ -7348,8 +8581,11 @@
       <c r="E412">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0.18</v>
       </c>
@@ -7365,8 +8601,11 @@
       <c r="E413">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4.58</v>
       </c>
@@ -7382,8 +8621,11 @@
       <c r="E414">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4.57</v>
       </c>
@@ -7399,8 +8641,11 @@
       <c r="E415">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>3.1</v>
       </c>
@@ -7416,8 +8661,11 @@
       <c r="E416">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>3.38</v>
       </c>
@@ -7433,8 +8681,11 @@
       <c r="E417">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1.4</v>
       </c>
@@ -7450,8 +8701,11 @@
       <c r="E418">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>0.23</v>
       </c>
@@ -7467,8 +8721,11 @@
       <c r="E419">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>0.36</v>
       </c>
@@ -7484,8 +8741,11 @@
       <c r="E420">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2.16</v>
       </c>
@@ -7501,8 +8761,11 @@
       <c r="E421">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>0.68</v>
       </c>
@@ -7518,8 +8781,11 @@
       <c r="E422">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>0.84</v>
       </c>
@@ -7535,8 +8801,11 @@
       <c r="E423">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2.64</v>
       </c>
@@ -7552,8 +8821,11 @@
       <c r="E424">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0.49</v>
       </c>
@@ -7569,8 +8841,11 @@
       <c r="E425">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.13</v>
       </c>
@@ -7586,8 +8861,11 @@
       <c r="E426">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.27</v>
       </c>
@@ -7603,8 +8881,11 @@
       <c r="E427">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>3.5</v>
       </c>
@@ -7620,8 +8901,11 @@
       <c r="E428">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3.87</v>
       </c>
@@ -7637,8 +8921,11 @@
       <c r="E429">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0.46</v>
       </c>
@@ -7654,8 +8941,11 @@
       <c r="E430">
         <v>4.0199999999999996</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>4</v>
       </c>
@@ -7671,8 +8961,11 @@
       <c r="E431">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2.68</v>
       </c>
@@ -7688,8 +8981,11 @@
       <c r="E432">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1.32</v>
       </c>
@@ -7705,8 +9001,11 @@
       <c r="E433">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1.57</v>
       </c>
@@ -7722,8 +9021,11 @@
       <c r="E434">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2.09</v>
       </c>
@@ -7739,8 +9041,11 @@
       <c r="E435">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2.34</v>
       </c>
@@ -7756,8 +9061,11 @@
       <c r="E436">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1.04</v>
       </c>
@@ -7773,8 +9081,11 @@
       <c r="E437">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>3.98</v>
       </c>
@@ -7790,8 +9101,11 @@
       <c r="E438">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0.68</v>
       </c>
@@ -7807,8 +9121,11 @@
       <c r="E439">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>0.92</v>
       </c>
@@ -7824,8 +9141,11 @@
       <c r="E440">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>4.84</v>
       </c>
@@ -7841,8 +9161,11 @@
       <c r="E441">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2.2200000000000002</v>
       </c>
@@ -7858,8 +9181,11 @@
       <c r="E442">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>3.03</v>
       </c>
@@ -7875,8 +9201,11 @@
       <c r="E443">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1.48</v>
       </c>
@@ -7892,8 +9221,11 @@
       <c r="E444">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>0.56999999999999995</v>
       </c>
@@ -7909,8 +9241,11 @@
       <c r="E445">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4.84</v>
       </c>
@@ -7926,8 +9261,11 @@
       <c r="E446">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1.25</v>
       </c>
@@ -7943,8 +9281,11 @@
       <c r="E447">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>3.52</v>
       </c>
@@ -7960,8 +9301,11 @@
       <c r="E448">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>4.5599999999999996</v>
       </c>
@@ -7977,8 +9321,11 @@
       <c r="E449">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>0.83</v>
       </c>
@@ -7994,8 +9341,11 @@
       <c r="E450">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2.14</v>
       </c>
@@ -8011,8 +9361,11 @@
       <c r="E451">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F451">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1.45</v>
       </c>
@@ -8028,8 +9381,11 @@
       <c r="E452">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F452">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2.13</v>
       </c>
@@ -8045,8 +9401,11 @@
       <c r="E453">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F453">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1.47</v>
       </c>
@@ -8062,8 +9421,11 @@
       <c r="E454">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F454">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4.2</v>
       </c>
@@ -8079,8 +9441,11 @@
       <c r="E455">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F455">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>5</v>
       </c>
@@ -8096,8 +9461,11 @@
       <c r="E456">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F456">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1.8</v>
       </c>
@@ -8113,8 +9481,11 @@
       <c r="E457">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1.05</v>
       </c>
@@ -8130,8 +9501,11 @@
       <c r="E458">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F458">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0.15</v>
       </c>
@@ -8147,8 +9521,11 @@
       <c r="E459">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F459">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>4.6900000000000004</v>
       </c>
@@ -8164,8 +9541,11 @@
       <c r="E460">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2.58</v>
       </c>
@@ -8181,8 +9561,11 @@
       <c r="E461">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F461">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2.17</v>
       </c>
@@ -8198,8 +9581,11 @@
       <c r="E462">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F462">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.91</v>
       </c>
@@ -8215,8 +9601,11 @@
       <c r="E463">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F463">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>4.08</v>
       </c>
@@ -8232,8 +9621,11 @@
       <c r="E464">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>4.08</v>
       </c>
@@ -8249,8 +9641,11 @@
       <c r="E465">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>0.97</v>
       </c>
@@ -8266,8 +9661,11 @@
       <c r="E466">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2.38</v>
       </c>
@@ -8283,8 +9681,11 @@
       <c r="E467">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>3.49</v>
       </c>
@@ -8300,8 +9701,11 @@
       <c r="E468">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3.73</v>
       </c>
@@ -8317,8 +9721,11 @@
       <c r="E469">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1</v>
       </c>
@@ -8334,8 +9741,11 @@
       <c r="E470">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>0.18</v>
       </c>
@@ -8351,8 +9761,11 @@
       <c r="E471">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1.6</v>
       </c>
@@ -8368,8 +9781,11 @@
       <c r="E472">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1</v>
       </c>
@@ -8385,8 +9801,11 @@
       <c r="E473">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>3.6</v>
       </c>
@@ -8402,8 +9821,11 @@
       <c r="E474">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0.52</v>
       </c>
@@ -8419,8 +9841,11 @@
       <c r="E475">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2.2400000000000002</v>
       </c>
@@ -8436,8 +9861,11 @@
       <c r="E476">
         <v>3</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4.87</v>
       </c>
@@ -8453,8 +9881,11 @@
       <c r="E477">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1.7</v>
       </c>
@@ -8470,8 +9901,11 @@
       <c r="E478">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1.55</v>
       </c>
@@ -8487,8 +9921,11 @@
       <c r="E479">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1.42</v>
       </c>
@@ -8504,8 +9941,11 @@
       <c r="E480">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1.35</v>
       </c>
@@ -8521,8 +9961,11 @@
       <c r="E481">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2.57</v>
       </c>
@@ -8538,8 +9981,11 @@
       <c r="E482">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>1.36</v>
       </c>
@@ -8555,8 +10001,11 @@
       <c r="E483">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>0.94</v>
       </c>
@@ -8572,8 +10021,11 @@
       <c r="E484">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>0.85</v>
       </c>
@@ -8589,8 +10041,11 @@
       <c r="E485">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>3.7</v>
       </c>
@@ -8606,8 +10061,11 @@
       <c r="E486">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F486">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>3.26</v>
       </c>
@@ -8623,8 +10081,11 @@
       <c r="E487">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F487">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3.34</v>
       </c>
@@ -8640,8 +10101,11 @@
       <c r="E488">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>0.56000000000000005</v>
       </c>
@@ -8657,8 +10121,11 @@
       <c r="E489">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>1.38</v>
       </c>
@@ -8674,8 +10141,11 @@
       <c r="E490">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>0.57999999999999996</v>
       </c>
@@ -8691,8 +10161,11 @@
       <c r="E491">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4.82</v>
       </c>
@@ -8708,8 +10181,11 @@
       <c r="E492">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>1.69</v>
       </c>
@@ -8725,8 +10201,11 @@
       <c r="E493">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>3.01</v>
       </c>
@@ -8742,8 +10221,11 @@
       <c r="E494">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3.93</v>
       </c>
@@ -8759,8 +10241,11 @@
       <c r="E495">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>0.02</v>
       </c>
@@ -8776,8 +10261,11 @@
       <c r="E496">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>0.78</v>
       </c>
@@ -8793,8 +10281,11 @@
       <c r="E497">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2.99</v>
       </c>
@@ -8810,8 +10301,11 @@
       <c r="E498">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>1.57</v>
       </c>
@@ -8827,8 +10321,11 @@
       <c r="E499">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4.0599999999999996</v>
       </c>
@@ -8843,6 +10340,9 @@
       </c>
       <c r="E500">
         <v>3.58</v>
+      </c>
+      <c r="F500">
+        <v>4.0599999999999996</v>
       </c>
     </row>
   </sheetData>
